--- a/outputs-r202/f__Ozemobacteraceae_train.xlsx
+++ b/outputs-r202/f__Ozemobacteraceae_train.xlsx
@@ -12,6 +12,7 @@
     <sheet name="g__MWDD01-b-p" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="g__Ozemobacter-b-p" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="g__RUG334-b-p" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="g__Rifleibacterium-b-p" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -6540,4 +6541,1371 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>g__CG2-30-54-10</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>g__JAAYNI01</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>g__MWAR01</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>g__MWDD01</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>g__Ozemobacter</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>g__RUG334</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839435.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_14.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_16.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_11.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839445.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839445.1_6.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_17.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_2.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_4.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_1.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_001787855.1_4.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839435.1_2.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839435.1_4.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_12.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_9.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_3.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_001787855.1_16.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839435.1_16.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839435.1_5.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839445.1_11.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_13.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_14.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1197517999173423</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2814892004959458</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2814892004959458</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_19.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1197517999173424</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1197517999173423</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2814892004959458</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2814892004959458</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_001787855.1_11.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_001787855.1_3.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_001787855.1_5.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_001787855.1_8.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_10.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_002839435.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_14.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_16.fasta</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009917695.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_11.fasta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>GB_GCA_009928855.1_18.fasta</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>g__Rifleibacterium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>